--- a/Documentacion/Fase de elaboracion/Semana 8/Gestion de proyecto/GPRACG2.xlsx
+++ b/Documentacion/Fase de elaboracion/Semana 8/Gestion de proyecto/GPRACG2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="14115" windowHeight="8670" firstSheet="11" activeTab="15"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="14115" windowHeight="8670"/>
   </bookViews>
   <sheets>
     <sheet name="1 _ Alejandro Garcia" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="206">
   <si>
     <t>Javier Madeiro</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Descripción Actividad</t>
   </si>
   <si>
-    <t>Alejandro Garcia</t>
-  </si>
-  <si>
     <t>Total Línea Gestión de Configuración y Control de Cambios</t>
   </si>
   <si>
@@ -148,12 +145,6 @@
     <t>Vicente Acosta</t>
   </si>
   <si>
-    <t>Federico Trindad</t>
-  </si>
-  <si>
-    <t>Total Análistas</t>
-  </si>
-  <si>
     <t>Total Asistente de Verificación</t>
   </si>
   <si>
@@ -253,9 +244,6 @@
     <t>V4</t>
   </si>
   <si>
-    <t>Realizacion de los Casos de Prueba</t>
-  </si>
-  <si>
     <t>28/09/2010</t>
   </si>
   <si>
@@ -268,18 +256,12 @@
     <t>V1</t>
   </si>
   <si>
-    <t>Plan de Verificacion de la Iteracion</t>
-  </si>
-  <si>
     <t>30/09/2010</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>Reunion de Equipo</t>
-  </si>
-  <si>
     <t>1/10/2010</t>
   </si>
   <si>
@@ -364,9 +346,6 @@
     <t>31/10/2010</t>
   </si>
   <si>
-    <t>Se decidio cambiar la fuente de la noticia por lo cual se tuvo que cambiar casi toda la estructura del parser</t>
-  </si>
-  <si>
     <t>Se dio por finalizada la construcción del parser</t>
   </si>
   <si>
@@ -376,12 +355,6 @@
     <t>Se integro el parser al proyecto y se realizo la carga de la base de datos con las noticias</t>
   </si>
   <si>
-    <t>Implementación de varios servicios y documentacion con marcos</t>
-  </si>
-  <si>
-    <t>Implementación del juego, integracion y testing</t>
-  </si>
-  <si>
     <t>19/09/2010</t>
   </si>
   <si>
@@ -418,9 +391,6 @@
     <t>29/09/2010</t>
   </si>
   <si>
-    <t>Investigacion de animaciones</t>
-  </si>
-  <si>
     <t>SI</t>
   </si>
   <si>
@@ -430,9 +400,6 @@
     <t>Reunión quincenal grupal</t>
   </si>
   <si>
-    <t>Finalizacion de interfaz de pantalla de sospechosos + imagenes + instalacion sw</t>
-  </si>
-  <si>
     <t>G5</t>
   </si>
   <si>
@@ -493,9 +460,6 @@
     <t>Documentos registro esfuerzo</t>
   </si>
   <si>
-    <t>Armar cronograma con gantt, y plan de iteración</t>
-  </si>
-  <si>
     <t>I10</t>
   </si>
   <si>
@@ -556,27 +520,12 @@
     <t>Cambios en el modelo</t>
   </si>
   <si>
-    <t xml:space="preserve"> llego</t>
-  </si>
-  <si>
     <t>Implementar las clases</t>
   </si>
   <si>
-    <t>Reunión virtual con Leti para determinar qué se precisa desde el lado del windowsphone, y real con fede t para ver cómo integrar la parte de Bing al proyecto</t>
-  </si>
-  <si>
     <t>Haciendo la función FilterSuspects, aún restan algunos detalles por hacer. Se probaron ciertas cosas y anduvieron</t>
   </si>
   <si>
-    <t>Reunión con Fede A. para definir lo que resta por hacer para la operación FilterSuspects</t>
-  </si>
-  <si>
-    <t>Arreglos varios en la conexion con Facebook con Fede A.</t>
-  </si>
-  <si>
-    <t>Implementación de servicios y junto con Leti, conexion del Windows Phone con Azure</t>
-  </si>
-  <si>
     <t>Esfuerzo Rol / consolidado</t>
   </si>
   <si>
@@ -625,12 +574,6 @@
     <t>Esfuerzo realizado</t>
   </si>
   <si>
-    <t>Tabla esfuerzo areas / consolidado</t>
-  </si>
-  <si>
-    <t>Analisis</t>
-  </si>
-  <si>
     <t>Diseño</t>
   </si>
   <si>
@@ -656,6 +599,57 @@
   </si>
   <si>
     <t>Horas realizadas</t>
+  </si>
+  <si>
+    <t>Realización de los Casos de Prueba</t>
+  </si>
+  <si>
+    <t>Plan de Verificación de la Iteración</t>
+  </si>
+  <si>
+    <t>Reunión de Equipo</t>
+  </si>
+  <si>
+    <t>Alejandro García</t>
+  </si>
+  <si>
+    <t>Se decidió cambiar la fuente de la noticia por lo cual se tuvo que cambiar casi toda la estructura del parser</t>
+  </si>
+  <si>
+    <t>Implementación de varios servicios y documentación con marcos</t>
+  </si>
+  <si>
+    <t>Implementación del juego, integración y testing</t>
+  </si>
+  <si>
+    <t>Investigación de animaciones</t>
+  </si>
+  <si>
+    <t>Finalización de interfaz de pantalla de sospechosos + imágenes + instalación sw</t>
+  </si>
+  <si>
+    <t>Armar cronograma con Gantt, y plan de iteración</t>
+  </si>
+  <si>
+    <t>Reunión virtual con Leticia para determinar qué se precisa desde el lado del Windows Phone, y real con Federico Trinidad para ver cómo integrar la parte de Bing al proyecto</t>
+  </si>
+  <si>
+    <t>Implementación de servicios y junto con Leticia, conexión del Windows Phone con Azure</t>
+  </si>
+  <si>
+    <t>Reunión con Federico Andrade, para definir lo que resta por hacer para la operación FilterSuspects</t>
+  </si>
+  <si>
+    <t>Arreglos varios en la conexión con Facebook con Federico Andrade</t>
+  </si>
+  <si>
+    <t>Total Analistas</t>
+  </si>
+  <si>
+    <t>Tabla esfuerzo áreas / consolidado</t>
+  </si>
+  <si>
+    <t>Análisis</t>
   </si>
 </sst>
 </file>
@@ -829,14 +823,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -853,9 +844,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -940,6 +928,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1019,7 +1010,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-UY"/>
+  <c:lang val="es-ES"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -1235,24 +1226,24 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="76522624"/>
-        <c:axId val="76524160"/>
+        <c:axId val="77170560"/>
+        <c:axId val="77172096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76522624"/>
+        <c:axId val="77170560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76524160"/>
+        <c:crossAx val="77172096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76524160"/>
+        <c:axId val="77172096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1260,7 +1251,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76522624"/>
+        <c:crossAx val="77170560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1275,7 +1266,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="es-UY"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1283,7 +1274,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1291,7 +1282,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-UY"/>
+  <c:lang val="es-ES"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -1507,24 +1498,24 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="81024896"/>
-        <c:axId val="91833088"/>
+        <c:axId val="77188480"/>
+        <c:axId val="77190272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81024896"/>
+        <c:axId val="77188480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91833088"/>
+        <c:crossAx val="77190272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91833088"/>
+        <c:axId val="77190272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1532,7 +1523,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81024896"/>
+        <c:crossAx val="77188480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1547,7 +1538,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="es-UY"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1555,7 +1546,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1563,7 +1554,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-UY"/>
+  <c:lang val="es-ES"/>
   <c:chart>
     <c:title>
       <c:layout/>
@@ -1675,24 +1666,24 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="80498048"/>
-        <c:axId val="80918784"/>
+        <c:axId val="77349632"/>
+        <c:axId val="77351168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80498048"/>
+        <c:axId val="77349632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80918784"/>
+        <c:crossAx val="77351168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80918784"/>
+        <c:axId val="77351168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1700,7 +1691,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80498048"/>
+        <c:crossAx val="77349632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1715,7 +1706,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="es-UY"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1723,7 +1714,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1731,7 +1722,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-UY"/>
+  <c:lang val="es-ES"/>
   <c:chart>
     <c:title>
       <c:layout/>
@@ -1846,24 +1837,24 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="91855872"/>
-        <c:axId val="92418816"/>
+        <c:axId val="77396224"/>
+        <c:axId val="77402112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91855872"/>
+        <c:axId val="77396224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92418816"/>
+        <c:crossAx val="77402112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92418816"/>
+        <c:axId val="77402112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1871,7 +1862,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91855872"/>
+        <c:crossAx val="77396224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1886,7 +1877,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="es-UY"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1894,7 +1885,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1902,7 +1893,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-UY"/>
+  <c:lang val="es-ES"/>
   <c:chart>
     <c:title>
       <c:layout/>
@@ -2020,7 +2011,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="es-UY"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2028,7 +2019,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2036,7 +2027,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-UY"/>
+  <c:lang val="es-ES"/>
   <c:chart>
     <c:title>
       <c:layout/>
@@ -2154,7 +2145,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="es-UY"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2162,7 +2153,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3318,16 +3309,14 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="14" customWidth="1"/>
     <col min="5" max="5" width="70" customWidth="1"/>
     <col min="6" max="11" width="10.85546875" customWidth="1"/>
   </cols>
@@ -3336,240 +3325,240 @@
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="36">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="F4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A6" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="16">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A7" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="18">
-        <v>1.5</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A6" s="28" t="s">
+      <c r="B7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A8" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="18">
-        <v>4</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="28" t="s">
+      <c r="C8" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="16">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A9" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C9" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="16">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A10" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="16">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A8" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="18">
-        <v>2</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="18">
-        <v>2</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A10" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="16">
+      <c r="D10" s="14">
         <v>4.5</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="7"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="7"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A15" s="28"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="7"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A16" s="29"/>
+      <c r="A16" s="27"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A18" s="29"/>
+      <c r="A18" s="27"/>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A19" s="29"/>
+      <c r="A19" s="27"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A20" s="29"/>
+      <c r="A20" s="27"/>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A22" s="29"/>
+      <c r="A22" s="27"/>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A23" s="29"/>
+      <c r="A23" s="27"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A24" s="29"/>
+      <c r="A24" s="27"/>
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A25" s="29"/>
+      <c r="A25" s="27"/>
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A26" s="29"/>
+      <c r="A26" s="27"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A27" s="29"/>
+      <c r="A27" s="27"/>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A28" s="29"/>
+      <c r="A28" s="27"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="23">
+        <v>32</v>
+      </c>
+      <c r="D29" s="21">
         <f>SUM(D4:D28)</f>
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1">
-      <c r="D30" s="19"/>
+      <c r="D30" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3584,7 +3573,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -3592,7 +3581,7 @@
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="14" customWidth="1"/>
     <col min="5" max="5" width="74.140625" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
@@ -3603,286 +3592,286 @@
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8">
+      <c r="B1" s="36">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="F4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="29" t="s">
-        <v>71</v>
+      <c r="A5" s="27" t="s">
+        <v>68</v>
       </c>
       <c r="B5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A6" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A7" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A8" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="16">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A9" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="16">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A10" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="16">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A11" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="16">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A12" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A13" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" t="s">
         <v>159</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C13" t="s">
         <v>160</v>
       </c>
-      <c r="D5" s="16">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D13" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="E13" t="s">
         <v>161</v>
       </c>
-      <c r="F5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A6" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" s="18">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D7" s="18">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A8" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D8" s="18">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="18">
-        <v>2</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A10" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="18">
-        <v>2</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A11" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D11" s="18">
-        <v>2</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A12" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="18">
-        <v>2.5</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A13" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D13" s="16">
-        <v>2.5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>173</v>
-      </c>
       <c r="F13" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="29"/>
+      <c r="A14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A15" s="29"/>
+      <c r="A15" s="27"/>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A16" s="29"/>
+      <c r="A16" s="27"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A18" s="29"/>
+      <c r="A18" s="27"/>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A19" s="29"/>
+      <c r="A19" s="27"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A20" s="29"/>
+      <c r="A20" s="27"/>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A22" s="29"/>
+      <c r="A22" s="27"/>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A23" s="29"/>
+      <c r="A23" s="27"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A24" s="29"/>
+      <c r="A24" s="27"/>
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A25" s="29"/>
+      <c r="A25" s="27"/>
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A26" s="29"/>
+      <c r="A26" s="27"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A27" s="29"/>
+      <c r="A27" s="27"/>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A28" s="29"/>
+      <c r="A28" s="27"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="23">
+        <v>32</v>
+      </c>
+      <c r="D29" s="21">
         <f>SUM(D4:D28)</f>
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1">
-      <c r="D30" s="19"/>
+      <c r="D30" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3897,7 +3886,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:K10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -3905,7 +3894,7 @@
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="14" customWidth="1"/>
     <col min="5" max="5" width="74.140625" customWidth="1"/>
     <col min="6" max="11" width="10.85546875" customWidth="1"/>
   </cols>
@@ -3914,265 +3903,265 @@
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8">
+      <c r="B1" s="36">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="F4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="16">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A6" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A7" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A8" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="18">
+      <c r="B8" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="16">
         <v>3</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A6" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="18">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="E8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A9" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="16">
+        <v>4</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="28" t="s">
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A10" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="B10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="16">
+        <v>12</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A8" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="18">
-        <v>3</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="18">
-        <v>4</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A10" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="18">
-        <v>12</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="7"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="7"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="7"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="18"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A15" s="28"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="18"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A16" s="28"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="18"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A18" s="29"/>
+      <c r="A18" s="27"/>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A19" s="29"/>
+      <c r="A19" s="27"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A20" s="29"/>
+      <c r="A20" s="27"/>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A22" s="29"/>
+      <c r="A22" s="27"/>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A23" s="29"/>
+      <c r="A23" s="27"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A24" s="29"/>
+      <c r="A24" s="27"/>
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A25" s="29"/>
+      <c r="A25" s="27"/>
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A26" s="29"/>
+      <c r="A26" s="27"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A27" s="29"/>
+      <c r="A27" s="27"/>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A28" s="29"/>
+      <c r="A28" s="27"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A29" s="29"/>
+      <c r="A29" s="27"/>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A30" s="29"/>
+      <c r="A30" s="27"/>
     </row>
     <row r="31" spans="1:4" ht="12.75" customHeight="1">
       <c r="C31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="23">
+        <v>32</v>
+      </c>
+      <c r="D31" s="21">
         <f>SUM(D4:D30)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.75" customHeight="1">
-      <c r="D32" s="19"/>
+      <c r="D32" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4187,7 +4176,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -4195,7 +4184,7 @@
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="52.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="14" customWidth="1"/>
     <col min="5" max="5" width="74.140625" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
@@ -4206,250 +4195,250 @@
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8">
+      <c r="B1" s="36">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" s="29" customFormat="1">
-      <c r="A5" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5" s="18">
+      <c r="F4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" s="27" customFormat="1" ht="25.5">
+      <c r="A5" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="16">
         <v>2</v>
       </c>
-      <c r="E5" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-    </row>
-    <row r="6" spans="1:11" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="D6" s="18">
+      <c r="E5" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+    </row>
+    <row r="6" spans="1:11" s="27" customFormat="1" ht="25.5">
+      <c r="A6" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="16">
         <v>3.5</v>
       </c>
-      <c r="E6" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="18">
+      <c r="E6" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="27" customFormat="1">
+      <c r="A7" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="16">
         <v>2</v>
       </c>
-      <c r="E7" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A8" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" s="18">
+      <c r="E7" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A8" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="16">
         <v>0.5</v>
       </c>
-      <c r="E8" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="18">
+      <c r="E8" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A9" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="16">
         <v>3</v>
       </c>
-      <c r="E9" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A10" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="18">
+      <c r="E9" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A10" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="16">
         <v>10.5</v>
       </c>
-      <c r="E10" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="28"/>
-    </row>
-    <row r="12" spans="1:11" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="18"/>
-    </row>
-    <row r="13" spans="1:11" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="18"/>
-    </row>
-    <row r="14" spans="1:11" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D14" s="16"/>
-    </row>
-    <row r="15" spans="1:11" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" spans="1:11" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D16" s="16"/>
-    </row>
-    <row r="17" spans="3:4" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18" spans="3:4" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D18" s="16"/>
-    </row>
-    <row r="19" spans="3:4" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D19" s="16"/>
-    </row>
-    <row r="20" spans="3:4" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D20" s="16"/>
-    </row>
-    <row r="21" spans="3:4" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D21" s="16"/>
-    </row>
-    <row r="22" spans="3:4" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D22" s="16"/>
-    </row>
-    <row r="23" spans="3:4" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D23" s="16"/>
-    </row>
-    <row r="24" spans="3:4" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D24" s="16"/>
-    </row>
-    <row r="25" spans="3:4" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D25" s="16"/>
-    </row>
-    <row r="26" spans="3:4" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D26" s="16"/>
-    </row>
-    <row r="27" spans="3:4" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D27" s="16"/>
-    </row>
-    <row r="28" spans="3:4" s="29" customFormat="1" ht="12.75" customHeight="1">
-      <c r="D28" s="16"/>
+      <c r="E10" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:11" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="1:11" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:11" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="3:4" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="3:4" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="3:4" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="3:4" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="3:4" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="3:4" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="3:4" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="3:4" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="3:4" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="3:4" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="3:4" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="3:4" s="27" customFormat="1" ht="12.75" customHeight="1">
+      <c r="D28" s="14"/>
     </row>
     <row r="29" spans="3:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="23">
+        <v>32</v>
+      </c>
+      <c r="D29" s="21">
         <f>SUM(D4:D28)</f>
         <v>21.5</v>
       </c>
     </row>
     <row r="30" spans="3:4" ht="12.75" customHeight="1">
-      <c r="D30" s="19"/>
+      <c r="D30" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4463,8 +4452,8 @@
   <sheetPr codeName="Hoja13"/>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -4478,632 +4467,632 @@
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="B1" s="7"/>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>207</v>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="33">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"R*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"R*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"R*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"R*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"R*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"R*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"R*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"R*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"R*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"R*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"R*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"R*")</f>
         <v>0</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="D7" s="36">
+      <c r="C7" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="34">
         <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A8" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="25">
+      <c r="A8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="23">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"D*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"D*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"D*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"D*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"D*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"D*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"D*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"D*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"D*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"D*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"D*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"D*")</f>
         <v>9</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="D8" s="36">
+      <c r="C8" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="34">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="25">
+      <c r="A9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="23">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"I*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"I*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"I*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"I*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"I*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"I*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"I*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"I*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"I*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"I*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"I*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"I*")</f>
-        <v>114.5</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="36">
+        <v>115.5</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="34">
         <v>390.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="23">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"Q*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"Q*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"Q*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"Q*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"Q*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"Q*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"Q*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"Q*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"Q*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"Q*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"Q*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"Q*")</f>
         <v>10.5</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="D10" s="36">
+      <c r="C10" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="34">
         <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A11" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="25">
+      <c r="A11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="23">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"C*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"C*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"C*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"C*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"C*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"C*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"C*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"C*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"C*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"C*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"C*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"C*")</f>
         <v>0</v>
       </c>
-      <c r="C11" s="36" t="s">
-        <v>201</v>
-      </c>
-      <c r="D11" s="36">
+      <c r="C11" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="34">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="23">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"G*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"G*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"G*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"G*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"G*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"G*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"G*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"G*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"G*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"G*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"G*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"G*")</f>
         <v>37</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" s="36">
+      <c r="C12" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="34">
         <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A13" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="25">
+      <c r="A13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="23">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"V*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"V*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"V*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"V*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"V*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"V*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"V*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"V*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"V*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"V*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"V*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"V*")</f>
         <v>12</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="D13" s="36">
+      <c r="C13" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="34">
         <v>90.5</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="25">
+      <c r="A14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="23">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"U*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"U*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"U*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"U*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"U*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"U*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"U*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"U*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"U*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"U*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"U*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"U*")</f>
         <v>0</v>
       </c>
-      <c r="C14" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="D14" s="36">
+      <c r="C14" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A15" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="25">
+      <c r="A15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="23">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"P*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"P*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"P*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"P*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"P*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"P*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"P*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"P*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"P*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"P*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"P*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"P*")</f>
         <v>0</v>
       </c>
-      <c r="C15" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="D15" s="36">
+      <c r="C15" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="34">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A16" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="26">
+      <c r="A16" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="24">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!B5:'1 _ Alejandro Garcia'!B28,"E*") + SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!B5:'2 _ Diego Ricca'!B28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!B5:'3 _ Federico Andrade'!B28,"E*") + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!B5:'4 _ Federico Trinidad'!B28,"E*") + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!B5:'5 _ Ignacio Infante'!B28,"E*") + SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!B5:'6 _ Javier Madeiro'!B28,"E*") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!B5:'7 _ José Cordero'!B28,"E*") + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!B5:'8 _ Juan Ghiringhelli'!B28,"E*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"E*") + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!B5:'9 _ Leticia Vilariño'!B28,"E*") + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!B5:'10 _ Marcos Sander'!B28,"E*") + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!B5:'11 _ Martín Taruselli'!B28,"E*") + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!B5:'12 _ Vicente Acosta'!B28,"E*")</f>
         <v>34</v>
       </c>
-      <c r="C16" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="D16" s="36">
+      <c r="C16" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="34">
         <v>521.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="9"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>196</v>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A19" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="24">
+      <c r="A19" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19" s="22">
         <f xml:space="preserve"> SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!F5:'2 _ Diego Ricca'!F28,"Si") + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!F5:'7 _ José Cordero'!F28,D5) + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!F5:'9 _ Leticia Vilariño'!F28,D5) + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!F5:'11 _ Martín Taruselli'!F28,D5)</f>
         <v>0</v>
       </c>
-      <c r="C19" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="D19" s="36">
+      <c r="C19" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="34">
         <v>215.5</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A20" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="D20" s="36">
+      <c r="A20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A21" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="25">
+      <c r="A21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="23">
         <f xml:space="preserve"> SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!F5:'10 _ Marcos Sander'!F28,D5)</f>
         <v>0</v>
       </c>
-      <c r="C21" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="D21" s="36">
+      <c r="C21" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="34">
         <v>97.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A22" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="25">
+      <c r="A22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="23">
         <f xml:space="preserve"> SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!H5:'10 _ Marcos Sander'!H28,D5)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="D22" s="36">
+      <c r="C22" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="23">
         <f xml:space="preserve"> SUMIFS('2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28,'2 _ Diego Ricca'!G5:'2 _ Diego Ricca'!G28,"Si") + SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!G5:'3 _ Federico Andrade'!G28,D5) + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!G5:'4 _ Federico Trinidad'!G28,D5) + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!G5:'5 _ Ignacio Infante'!G28,D5) + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!G5:'7 _ José Cordero'!G28,D5) + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!H5:'9 _ Leticia Vilariño'!H28,D5) + SUMIFS('9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28,'9 _ Leticia Vilariño'!G5:'9 _ Leticia Vilariño'!G28,D5) + SUMIFS('11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28,'11 _ Martín Taruselli'!G5:'11 _ Martín Taruselli'!G28,D5) + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!H5:'12 _ Vicente Acosta'!H28,D5)</f>
-        <v>134.5</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="D23" s="36">
+        <v>135.5</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" s="34">
         <v>410.5</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A24" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="25">
+      <c r="A24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="23">
         <f xml:space="preserve"> SUMIFS('3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28,'3 _ Federico Andrade'!F5:'3 _ Federico Andrade'!F28,D5) + SUMIFS('4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28,'4 _ Federico Trinidad'!F5:'4 _ Federico Trinidad'!F28,D5) + SUMIFS('5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28,'5 _ Ignacio Infante'!F5:'5 _ Ignacio Infante'!F28,D5) + SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!G5:'12 _ Vicente Acosta'!G28,D5)</f>
         <v>32</v>
       </c>
-      <c r="C24" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="D24" s="36">
+      <c r="C24" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" s="34">
         <v>322.5</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="23">
         <f xml:space="preserve"> SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!F5:'6 _ Javier Madeiro'!F28,D5)</f>
         <v>13.5</v>
       </c>
-      <c r="C25" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="D25" s="36">
+      <c r="C25" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="34">
         <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="23">
         <f xml:space="preserve"> SUMIFS('12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28,'12 _ Vicente Acosta'!F5:'12 _ Vicente Acosta'!F28,D5)</f>
         <v>0</v>
       </c>
-      <c r="C26" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="D26" s="36">
+      <c r="C26" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" s="34">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A27" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="25">
+      <c r="A27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="23">
         <f xml:space="preserve"> SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!F5:'1 _ Alejandro Garcia'!F28,D5) + SUMIFS('1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28,'1 _ Alejandro Garcia'!G5:'1 _ Alejandro Garcia'!G28,D5)</f>
         <v>15</v>
       </c>
-      <c r="C27" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="D27" s="36">
+      <c r="C27" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="34">
         <v>131.5</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A28" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="25">
+      <c r="A28" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="23">
         <f xml:space="preserve"> SUMIFS('6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28,'6 _ Javier Madeiro'!G5:'6 _ Javier Madeiro'!G28,D5) + SUMIFS('7 _ José Cordero'!D5:'7 _ José Cordero'!D28,'7 _ José Cordero'!H5:'7 _ José Cordero'!H28,D5) + SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!G5:'8 _ Juan Ghiringhelli'!G28,D5) + SUMIFS('10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28,'10 _ Marcos Sander'!G5:'10 _ Marcos Sander'!G28,D5)</f>
         <v>0</v>
       </c>
-      <c r="C28" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="D28" s="36">
+      <c r="C28" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" s="34">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A29" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="25">
+      <c r="A29" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="23">
         <f xml:space="preserve"> SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!F5:'8 _ Juan Ghiringhelli'!F28,D5)</f>
         <v>14</v>
       </c>
-      <c r="C29" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="D29" s="36">
+      <c r="C29" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D29" s="34">
         <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A30" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="25">
+      <c r="A30" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="23">
         <f xml:space="preserve"> SUMIFS('8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28,'8 _ Juan Ghiringhelli'!H5:'8 _ Juan Ghiringhelli'!H28,D5)</f>
         <v>0</v>
       </c>
-      <c r="C30" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="D30" s="36">
+      <c r="C30" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="34">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A31" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="9"/>
+      <c r="A31" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="7"/>
     </row>
     <row r="32" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
     </row>
     <row r="33" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="D33" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="E33" s="36" t="s">
-        <v>196</v>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A34" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="24">
+      <c r="A34" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B34" s="22">
         <f>SUM( '1 _ Alejandro Garcia'!D5:'1 _ Alejandro Garcia'!D28)</f>
         <v>15</v>
       </c>
-      <c r="C34" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="36">
+      <c r="C34" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" s="34">
         <v>120</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="34">
         <v>145.5</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A35" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="25">
+      <c r="A35" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="23">
         <f>SUM( '2 _ Diego Ricca'!D5:'2 _ Diego Ricca'!D28)</f>
         <v>25</v>
       </c>
-      <c r="C35" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="36">
+      <c r="C35" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="34">
         <v>120</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E35" s="34">
         <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A36" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="25">
+      <c r="A36" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="23">
         <f>SUM( '3 _ Federico Andrade'!D5:'3 _ Federico Andrade'!D28)</f>
         <v>16</v>
       </c>
-      <c r="C36" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" s="36">
+      <c r="C36" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="34">
         <v>120</v>
       </c>
-      <c r="E36" s="36">
+      <c r="E36" s="34">
         <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A37" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="25">
+      <c r="A37" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="23">
         <f>SUM( '4 _ Federico Trinidad'!D5:'4 _ Federico Trinidad'!D28)</f>
         <v>32</v>
       </c>
-      <c r="C37" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="36">
+      <c r="C37" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="34">
         <v>120</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37" s="34">
         <v>149.5</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="25">
+      <c r="B38" s="23">
         <f>SUM( '5 _ Ignacio Infante'!D5:'5 _ Ignacio Infante'!D28)</f>
         <v>20</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="36">
+      <c r="D38" s="34">
         <v>120</v>
       </c>
-      <c r="E38" s="36">
+      <c r="E38" s="34">
         <v>154.5</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="25">
+      <c r="B39" s="23">
         <f>SUM( '6 _ Javier Madeiro'!D5:'6 _ Javier Madeiro'!D28)</f>
         <v>13.5</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="36">
+      <c r="D39" s="34">
         <v>120</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E39" s="34">
         <v>137.5</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A40" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="25">
+      <c r="A40" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="23">
         <f>SUM( '7 _ José Cordero'!D5:'7 _ José Cordero'!D28)</f>
         <v>13</v>
       </c>
-      <c r="C40" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="36">
+      <c r="C40" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="34">
         <v>120</v>
       </c>
-      <c r="E40" s="36">
+      <c r="E40" s="34">
         <v>132.5</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="25">
+      <c r="B41" s="23">
         <f>SUM( '8 _ Juan Ghiringhelli'!D5:'8 _ Juan Ghiringhelli'!D28)</f>
         <v>14</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="36">
+      <c r="D41" s="34">
         <v>120</v>
       </c>
-      <c r="E41" s="36">
+      <c r="E41" s="34">
         <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A42" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="25">
+      <c r="A42" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="23">
         <f>SUM( '9 _ Leticia Vilariño'!D5:'9 _ Leticia Vilariño'!D28)</f>
         <v>17</v>
       </c>
-      <c r="C42" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="36">
+      <c r="C42" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="34">
         <v>120</v>
       </c>
-      <c r="E42" s="36">
+      <c r="E42" s="34">
         <v>133.5</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="25">
+      <c r="B43" s="23">
         <f>SUM( '10 _ Marcos Sander'!D5:'10 _ Marcos Sander'!D28)</f>
         <v>15</v>
       </c>
-      <c r="C43" s="36" t="s">
+      <c r="C43" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="36">
+      <c r="D43" s="34">
         <v>120</v>
       </c>
-      <c r="E43" s="36">
+      <c r="E43" s="34">
         <v>125.5</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A44" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" s="25">
+      <c r="A44" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="23">
         <f>SUM( '11 _ Martín Taruselli'!D5:'11 _ Martín Taruselli'!D28)</f>
-        <v>23</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" s="36">
+        <v>24</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="34">
         <v>120</v>
       </c>
-      <c r="E44" s="36">
+      <c r="E44" s="34">
         <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A45" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="26">
+      <c r="A45" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="24">
         <f>SUM( '12 _ Vicente Acosta'!D5:'12 _ Vicente Acosta'!D28)</f>
         <v>21.5</v>
       </c>
-      <c r="C45" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="36">
+      <c r="C45" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="34">
         <v>120</v>
       </c>
-      <c r="E45" s="36">
+      <c r="E45" s="34">
         <v>133</v>
       </c>
     </row>
@@ -5156,7 +5145,7 @@
   <sheetPr codeName="Hoja15"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -5177,7 +5166,7 @@
   <sheetPr codeName="Hoja16"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -5194,7 +5183,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -5202,7 +5191,7 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="14" customWidth="1"/>
     <col min="5" max="5" width="50.140625" customWidth="1"/>
     <col min="6" max="11" width="10.85546875" customWidth="1"/>
   </cols>
@@ -5211,282 +5200,282 @@
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="F4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="16">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A6" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A7" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B7" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="18">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A8" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="18">
+      <c r="B8" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="16">
         <v>3</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A6" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="18">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="E8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A9" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="16">
+        <v>4</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="28" t="s">
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A10" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="20">
-        <v>2</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="B10" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="16">
+        <v>12</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A8" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="18">
-        <v>3</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="18">
-        <v>4</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A10" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="18">
-        <v>12</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="7"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="7"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="7"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="7"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="18">
+        <v>32</v>
+      </c>
+      <c r="D29" s="16">
         <f>SUM(D4:D28)</f>
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1">
-      <c r="D30" s="19"/>
+      <c r="D30" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5501,7 +5490,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -5509,7 +5498,7 @@
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="52" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="19" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="10.85546875" customWidth="1"/>
@@ -5519,203 +5508,203 @@
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8">
+      <c r="B1" s="36">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="F4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="18">
+      <c r="A5" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="16">
         <v>2</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A6" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="18">
+      <c r="A6" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="16">
         <v>4</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="6"/>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="18">
+      <c r="A7" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="16">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="18"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="18"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A10" s="29"/>
-      <c r="D10" s="16"/>
+      <c r="A10" s="27"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A11" s="29"/>
-      <c r="D11" s="16"/>
+      <c r="A11" s="27"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A12" s="29"/>
-      <c r="D12" s="16"/>
+      <c r="A12" s="27"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A13" s="29"/>
-      <c r="D13" s="16"/>
+      <c r="A13" s="27"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="29"/>
-      <c r="D14" s="16"/>
+      <c r="A14" s="27"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="D15" s="16"/>
+      <c r="A15" s="27"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A16" s="29"/>
-      <c r="D16" s="16"/>
+      <c r="A16" s="27"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A17" s="29"/>
-      <c r="D17" s="16"/>
+      <c r="A17" s="27"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A18" s="29"/>
-      <c r="D18" s="16"/>
+      <c r="A18" s="27"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A19" s="29"/>
-      <c r="D19" s="16"/>
+      <c r="A19" s="27"/>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A20" s="29"/>
-      <c r="D20" s="16"/>
+      <c r="A20" s="27"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A21" s="29"/>
-      <c r="D21" s="16"/>
+      <c r="A21" s="27"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A22" s="29"/>
-      <c r="D22" s="16"/>
+      <c r="A22" s="27"/>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A23" s="29"/>
-      <c r="D23" s="16"/>
+      <c r="A23" s="27"/>
+      <c r="D23" s="14"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A24" s="29"/>
-      <c r="D24" s="16"/>
+      <c r="A24" s="27"/>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A25" s="29"/>
-      <c r="D25" s="16"/>
+      <c r="A25" s="27"/>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A26" s="29"/>
-      <c r="D26" s="16"/>
+      <c r="A26" s="27"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A27" s="29"/>
-      <c r="D27" s="16"/>
+      <c r="A27" s="27"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A28" s="29"/>
-      <c r="D28" s="16"/>
+      <c r="A28" s="27"/>
+      <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A29" s="29"/>
-      <c r="D29" s="16"/>
+      <c r="A29" s="27"/>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1">
       <c r="C30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="23">
+        <v>32</v>
+      </c>
+      <c r="D30" s="21">
         <f>SUM(D5:D29)</f>
         <v>16</v>
       </c>
@@ -5733,7 +5722,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:K12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -5741,7 +5730,7 @@
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="14" customWidth="1"/>
     <col min="5" max="5" width="49.42578125" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="10.85546875" customWidth="1"/>
@@ -5751,272 +5740,272 @@
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8">
+      <c r="B1" s="36">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="F4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="16">
+        <v>6</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A6" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="16">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A7" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="16">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A8" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="16">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A9" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="16">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A10" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="14">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A11" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="14">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="18">
-        <v>6</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A12" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A6" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="18">
+      <c r="D12" s="14">
         <v>4</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="28" t="s">
+      <c r="E12" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="18">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A8" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="18">
-        <v>4</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="18">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A10" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="16">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A11" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="16">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
-        <v>111</v>
-      </c>
-      <c r="F11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A12" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="16">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s">
-        <v>113</v>
-      </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A13" s="29"/>
+      <c r="A13" s="27"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="29"/>
+      <c r="A14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A15" s="29"/>
+      <c r="A15" s="27"/>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A16" s="29"/>
+      <c r="A16" s="27"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A18" s="29"/>
+      <c r="A18" s="27"/>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A19" s="29"/>
+      <c r="A19" s="27"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A20" s="29"/>
+      <c r="A20" s="27"/>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A22" s="29"/>
+      <c r="A22" s="27"/>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A23" s="29"/>
+      <c r="A23" s="27"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A24" s="29"/>
+      <c r="A24" s="27"/>
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A25" s="29"/>
+      <c r="A25" s="27"/>
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A26" s="29"/>
+      <c r="A26" s="27"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A27" s="29"/>
+      <c r="A27" s="27"/>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A28" s="29"/>
+      <c r="A28" s="27"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="23">
+        <v>32</v>
+      </c>
+      <c r="D29" s="21">
         <f>SUM(D4:D28)</f>
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1">
-      <c r="D30" s="19"/>
+      <c r="D30" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6031,7 +6020,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:K8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -6039,7 +6028,7 @@
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="52" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="14" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -6051,226 +6040,226 @@
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8">
+      <c r="B1" s="36">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="F4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="16">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A6" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="18">
-        <v>2</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A6" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="18">
+      <c r="B6" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="16">
         <v>3</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>90</v>
+      <c r="E6" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="18">
+      <c r="A7" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="16">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>114</v>
+        <v>194</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A8" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="18">
+      <c r="A8" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="16">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="7"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="7"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="18"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="18"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A15" s="29"/>
+      <c r="A15" s="27"/>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A16" s="29"/>
+      <c r="A16" s="27"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A18" s="29"/>
+      <c r="A18" s="27"/>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A19" s="29"/>
+      <c r="A19" s="27"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A20" s="29"/>
+      <c r="A20" s="27"/>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A22" s="29"/>
+      <c r="A22" s="27"/>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A23" s="29"/>
+      <c r="A23" s="27"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A24" s="29"/>
+      <c r="A24" s="27"/>
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A25" s="29"/>
+      <c r="A25" s="27"/>
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A26" s="29"/>
+      <c r="A26" s="27"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A27" s="29"/>
+      <c r="A27" s="27"/>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A28" s="29"/>
+      <c r="A28" s="27"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="23">
+        <v>32</v>
+      </c>
+      <c r="D29" s="21">
         <f>SUM(D4:D28)</f>
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1">
-      <c r="D30" s="19"/>
+      <c r="D30" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6284,8 +6273,8 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -6293,7 +6282,7 @@
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="14" customWidth="1"/>
     <col min="5" max="5" width="74.140625" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -6304,230 +6293,230 @@
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>4</v>
+      <c r="B1" s="36">
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="F4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="18">
+      <c r="A5" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="16">
         <v>3.5</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A7" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="18">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="18">
+      <c r="B7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="16">
         <v>2</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A8" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A8" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="18">
+      <c r="C8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="16">
         <v>3</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>123</v>
+      <c r="E8" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="18">
+      <c r="A9" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="16">
         <v>4</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>122</v>
+      <c r="E9" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="7"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="7"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="18"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A13" s="29"/>
+      <c r="A13" s="27"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="29"/>
+      <c r="A14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A15" s="29"/>
+      <c r="A15" s="27"/>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A16" s="29"/>
+      <c r="A16" s="27"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A18" s="29"/>
+      <c r="A18" s="27"/>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A19" s="29"/>
+      <c r="A19" s="27"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A20" s="29"/>
+      <c r="A20" s="27"/>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A22" s="29"/>
+      <c r="A22" s="27"/>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A23" s="29"/>
+      <c r="A23" s="27"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A24" s="29"/>
+      <c r="A24" s="27"/>
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A25" s="29"/>
+      <c r="A25" s="27"/>
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A26" s="29"/>
+      <c r="A26" s="27"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A27" s="29"/>
+      <c r="A27" s="27"/>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A28" s="29"/>
+      <c r="A28" s="27"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="23">
+        <v>32</v>
+      </c>
+      <c r="D29" s="21">
         <f>SUM(D4:D28)</f>
         <v>13.5</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1">
-      <c r="D30" s="19"/>
+      <c r="D30" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6542,7 +6531,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -6550,7 +6539,7 @@
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="14" customWidth="1"/>
     <col min="5" max="5" width="74.140625" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
@@ -6562,223 +6551,223 @@
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
+      <c r="B1" s="36">
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="30" t="s">
+      <c r="D4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="F4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="18">
+      <c r="A5" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="16">
         <v>4</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="31"/>
+      <c r="E5" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A6" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="18">
+      <c r="A6" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="16">
         <v>2</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>128</v>
+      <c r="E6" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="G6" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="18">
+      <c r="A7" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="16">
         <v>1</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>131</v>
+      <c r="E7" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A8" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="18">
+      <c r="A8" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="16">
         <v>1</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="6"/>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="18">
+      <c r="A9" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="16">
         <v>5</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>132</v>
+      <c r="E9" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="7"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="7"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A12" s="29"/>
+      <c r="A12" s="27"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A13" s="29"/>
+      <c r="A13" s="27"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="29"/>
+      <c r="A14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A15" s="29"/>
+      <c r="A15" s="27"/>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A16" s="29"/>
+      <c r="A16" s="27"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A18" s="29"/>
+      <c r="A18" s="27"/>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A19" s="29"/>
+      <c r="A19" s="27"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A20" s="29"/>
+      <c r="A20" s="27"/>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A22" s="29"/>
+      <c r="A22" s="27"/>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A23" s="29"/>
+      <c r="A23" s="27"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A24" s="29"/>
+      <c r="A24" s="27"/>
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A25" s="29"/>
+      <c r="A25" s="27"/>
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A26" s="29"/>
+      <c r="A26" s="27"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A27" s="29"/>
+      <c r="A27" s="27"/>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A28" s="29"/>
+      <c r="A28" s="27"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="23">
+        <v>32</v>
+      </c>
+      <c r="D29" s="21">
         <f>SUM(D4:D28)</f>
         <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1">
-      <c r="D30" s="19"/>
+      <c r="D30" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6793,7 +6782,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -6801,7 +6790,7 @@
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="52" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="14" customWidth="1"/>
     <col min="5" max="5" width="74.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -6812,312 +6801,312 @@
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
+      <c r="B1" s="36">
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="16">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A7" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A8" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="16">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A9" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="16">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A10" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D10" s="16">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="18">
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A11" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="32">
+        <v>1</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A12" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="16">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A13" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="16">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="12.75" customHeight="1">
+      <c r="A14" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="16">
         <v>2</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="18">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="18">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A8" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="18">
-        <v>3</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="18">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A10" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="18">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A11" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="D11" s="34">
-        <v>1</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A12" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="18">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A13" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D13" s="18">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="18">
-        <v>2</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>65</v>
+      <c r="E14" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A15" s="28"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="7"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A16" s="29"/>
+      <c r="A16" s="27"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A18" s="29"/>
+      <c r="A18" s="27"/>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A19" s="29"/>
+      <c r="A19" s="27"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A20" s="29"/>
+      <c r="A20" s="27"/>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A22" s="29"/>
+      <c r="A22" s="27"/>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A23" s="29"/>
+      <c r="A23" s="27"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A24" s="29"/>
+      <c r="A24" s="27"/>
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A25" s="29"/>
+      <c r="A25" s="27"/>
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A26" s="29"/>
+      <c r="A26" s="27"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A27" s="29"/>
+      <c r="A27" s="27"/>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A28" s="29"/>
+      <c r="A28" s="27"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="23">
+        <v>32</v>
+      </c>
+      <c r="D29" s="21">
         <f>SUM(D4:D28)</f>
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1">
-      <c r="D30" s="19"/>
+      <c r="D30" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7132,7 +7121,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:K9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -7140,7 +7129,7 @@
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="52" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="14" customWidth="1"/>
     <col min="5" max="5" width="70.42578125" customWidth="1"/>
     <col min="6" max="11" width="11.42578125" customWidth="1"/>
   </cols>
@@ -7149,238 +7138,238 @@
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8">
+      <c r="B1" s="36">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="18">
+      <c r="F4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="25.5">
+      <c r="A5" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="16">
         <v>1</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A6" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="18">
+      <c r="A6" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="16">
         <v>2</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>108</v>
+      <c r="E6" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="18">
+      <c r="A7" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="16">
         <v>3</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>156</v>
+      <c r="E7" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A8" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="18">
+      <c r="A8" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="16">
         <v>3</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>157</v>
+      <c r="E8" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="18">
+      <c r="A9" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="16">
         <v>8</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>158</v>
+      <c r="E9" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="7"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A11" s="28"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="7"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A12" s="28"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="7"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A13" s="29"/>
+      <c r="A13" s="27"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A14" s="29"/>
+      <c r="A14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A15" s="29"/>
+      <c r="A15" s="27"/>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A16" s="29"/>
+      <c r="A16" s="27"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A17" s="29"/>
+      <c r="A17" s="27"/>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A18" s="29"/>
+      <c r="A18" s="27"/>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A19" s="29"/>
+      <c r="A19" s="27"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A20" s="29"/>
+      <c r="A20" s="27"/>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A21" s="29"/>
+      <c r="A21" s="27"/>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A22" s="29"/>
+      <c r="A22" s="27"/>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A23" s="29"/>
+      <c r="A23" s="27"/>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A24" s="29"/>
+      <c r="A24" s="27"/>
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A25" s="29"/>
+      <c r="A25" s="27"/>
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A26" s="29"/>
+      <c r="A26" s="27"/>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A27" s="29"/>
+      <c r="A27" s="27"/>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A28" s="29"/>
+      <c r="A28" s="27"/>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A29" s="29"/>
+      <c r="A29" s="27"/>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1">
       <c r="C30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="23">
+        <v>32</v>
+      </c>
+      <c r="D30" s="21">
         <f>SUM(D5:D29)</f>
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="12.75" customHeight="1">
-      <c r="D31" s="19"/>
+      <c r="D31" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
